--- a/flask-server/ontobot/files/excel/filled-excel/4961e33b-29d3-47ad-89a2-34d04dfff39babc.xlsx
+++ b/flask-server/ontobot/files/excel/filled-excel/4961e33b-29d3-47ad-89a2-34d04dfff39babc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Ontobot\ontobot-app\flask-server\ontobot\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CF7DD6-A290-4B6A-9F21-04B241EFD328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CBFFFD-346B-4CDA-8DCB-903B01FAE3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,20 @@
     <sheet name="Toxic Female Student" sheetId="8" r:id="rId8"/>
     <sheet name="Toxic Male Student" sheetId="9" r:id="rId9"/>
     <sheet name="Lecture" sheetId="10" r:id="rId10"/>
-    <sheet name="Juinor Lecture" sheetId="11" r:id="rId11"/>
+    <sheet name="Junior Lecture" sheetId="11" r:id="rId11"/>
     <sheet name="Senior Lecture" sheetId="12" r:id="rId12"/>
     <sheet name="Degree" sheetId="13" r:id="rId13"/>
     <sheet name="CS Degree" sheetId="14" r:id="rId14"/>
     <sheet name="IS Degree" sheetId="15" r:id="rId15"/>
     <sheet name="SE Degree" sheetId="16" r:id="rId16"/>
+    <sheet name="SCS Degree" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t># Object Name</t>
   </si>
@@ -49,7 +50,7 @@
     <t>category (string)</t>
   </si>
   <si>
-    <t>Student Name (string)</t>
+    <t>Name (string)</t>
   </si>
   <si>
     <t>Toxic Level (integer)</t>
@@ -58,55 +59,58 @@
     <t>Innocent Level (integer)</t>
   </si>
   <si>
-    <t>Lecture Name (string)</t>
-  </si>
-  <si>
     <t>Degree Name (string)</t>
   </si>
   <si>
+    <t>WSO2</t>
+  </si>
+  <si>
     <t>IFS</t>
   </si>
   <si>
+    <t>ADL</t>
+  </si>
+  <si>
+    <t>Web Services Oxygen</t>
+  </si>
+  <si>
     <t>International Financial System</t>
   </si>
   <si>
+    <t>Axiate Digital Labs</t>
+  </si>
+  <si>
     <t>AC</t>
   </si>
   <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
     <t>Ananda College</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
     <t>Royal College</t>
   </si>
   <si>
+    <t>Nalanda College</t>
+  </si>
+  <si>
+    <t>Grade 01</t>
+  </si>
+  <si>
     <t>UOC</t>
   </si>
   <si>
+    <t>UOJ</t>
+  </si>
+  <si>
     <t>Colombo</t>
   </si>
   <si>
-    <t>YOJ</t>
-  </si>
-  <si>
-    <t>Jaffna</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>Information Systems</t>
+    <t>Jpura</t>
   </si>
 </sst>
 </file>
@@ -495,17 +499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,13 +526,35 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>1997</v>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2004</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +574,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -556,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +602,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -584,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +630,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -612,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -622,11 +648,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,23 +666,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +750,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -750,11 +788,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,30 +819,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>1890</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>1880</v>
+        <v>1899</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1897</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -816,9 +868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,10 +893,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2">
         <v>1800</v>
@@ -852,10 +904,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>1900</v>
@@ -914,7 +966,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,7 +994,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -974,7 +1026,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1006,7 +1058,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1038,7 +1090,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
